--- a/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Familia_Ingresos Causas Por Materia_2018-Agosto.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Familia_Ingresos Causas Por Materia_2018-Agosto.xlsx
@@ -231,23 +231,23 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos, Cesacion</t>
+          <t xml:space="preserve">Alimentos Aumento</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Alimentos, Otros</t>
+          <t xml:space="preserve">Alimentos, Cesacion</t>
         </is>
       </c>
       <c r="B5" s="65">
@@ -267,121 +267,101 @@
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Autorizaciones</t>
+          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
+          <t xml:space="preserve">Otros Asuntos Voluntarios</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
+          <t xml:space="preserve">Otros Procedimientos Menores</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Infracción A La Ley Penal</t>
+          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Otros Asuntos Voluntarios</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
         </is>
       </c>
       <c r="B13" s="65">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Otros Procedimientos Menores</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Suspension</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
+          <t xml:space="preserve">Violencia Intrafamiliar</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
+          <t xml:space="preserve">Vulneración De Derechos</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c t="inlineStr" r="A17">
-        <is>
-          <t xml:space="preserve">Violencia Intrafamiliar</t>
-        </is>
-      </c>
-      <c r="B17" s="65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="inlineStr" r="A18">
-        <is>
-          <t xml:space="preserve">Vulneración De Derechos</t>
-        </is>
-      </c>
-      <c r="B18" s="65">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
